--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1186"/>
+  <dimension ref="A1:I1187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42736,6 +42736,41 @@
         </is>
       </c>
     </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E1187" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>9000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1187"/>
+  <dimension ref="A1:I1188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42771,6 +42771,41 @@
         <v>9000</v>
       </c>
     </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E1188" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1188"/>
+  <dimension ref="A1:I1189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42806,6 +42806,43 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E1189" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1189" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1189"/>
+  <dimension ref="A1:I1190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42843,6 +42843,43 @@
         </is>
       </c>
     </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E1190" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1190" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1190"/>
+  <dimension ref="A1:I1191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42880,6 +42880,41 @@
         </is>
       </c>
     </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E1191" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>5200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1191"/>
+  <dimension ref="A1:I1192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42915,6 +42915,41 @@
         <v>5200</v>
       </c>
     </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E1192" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>395000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1192"/>
+  <dimension ref="A1:I1193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42950,6 +42950,41 @@
         <v>395000</v>
       </c>
     </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E1193" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>29000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1193"/>
+  <dimension ref="A1:I1194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42985,6 +42985,41 @@
         <v>29000</v>
       </c>
     </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1194"/>
+  <dimension ref="A1:I1195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43020,6 +43020,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1195" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1195"/>
+  <dimension ref="A1:I1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43057,6 +43057,76 @@
         </is>
       </c>
     </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1197"/>
+  <dimension ref="A1:I1199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43127,6 +43127,78 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1198" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>9000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43199,6 +43199,41 @@
         <v>9000</v>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43234,6 +43234,43 @@
         <v>200</v>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43271,6 +43271,41 @@
         </is>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>22800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43306,6 +43306,43 @@
         <v>22800</v>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43343,6 +43343,41 @@
         </is>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43378,6 +43378,43 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43415,6 +43415,43 @@
         </is>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2327"/>
+  <dimension ref="A1:I2328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82687,6 +82687,41 @@
         </is>
       </c>
     </row>
+    <row r="2328">
+      <c r="A2328" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2328" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2328" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D2328" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E2328" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2328" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2328" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2328" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2328" t="n">
+        <v>28200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2328"/>
+  <dimension ref="A1:I2329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82722,6 +82722,41 @@
         <v>28200</v>
       </c>
     </row>
+    <row r="2329">
+      <c r="A2329" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2329" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D2329" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E2329" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2329" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2329" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2329" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2329" t="n">
+        <v>19000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2329"/>
+  <dimension ref="A1:I2330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82757,6 +82757,43 @@
         <v>19000</v>
       </c>
     </row>
+    <row r="2330">
+      <c r="A2330" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2330" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2330" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D2330" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E2330" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2330" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2330" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2330" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2330" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2330"/>
+  <dimension ref="A1:I2331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82794,6 +82794,43 @@
         </is>
       </c>
     </row>
+    <row r="2331">
+      <c r="A2331" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2331" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2331" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D2331" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E2331" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2331" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2331" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2331" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2331" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2331"/>
+  <dimension ref="A1:I2332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82831,6 +82831,43 @@
         </is>
       </c>
     </row>
+    <row r="2332">
+      <c r="A2332" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2332" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2332" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D2332" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E2332" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2332" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2332" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2332" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2332" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2332"/>
+  <dimension ref="A1:I2333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82868,6 +82868,43 @@
         </is>
       </c>
     </row>
+    <row r="2333">
+      <c r="A2333" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2333" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2333" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D2333" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E2333" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2333" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2333" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2333" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2333" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2333"/>
+  <dimension ref="A1:I2334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82905,6 +82905,43 @@
         </is>
       </c>
     </row>
+    <row r="2334">
+      <c r="A2334" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2334" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2334" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D2334" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E2334" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2334" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2334" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2334" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2334" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2334"/>
+  <dimension ref="A1:I2335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82942,6 +82942,41 @@
         </is>
       </c>
     </row>
+    <row r="2335">
+      <c r="A2335" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2335" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2335" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D2335" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E2335" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2335" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2335" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2335" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2335" t="n">
+        <v>23000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2335"/>
+  <dimension ref="A1:I2336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82977,6 +82977,41 @@
         <v>23000</v>
       </c>
     </row>
+    <row r="2336">
+      <c r="A2336" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2336" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2336" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D2336" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E2336" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2336" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2336" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2336" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2336" t="n">
+        <v>71000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2336"/>
+  <dimension ref="A1:I2337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83012,6 +83012,41 @@
         <v>71000</v>
       </c>
     </row>
+    <row r="2337">
+      <c r="A2337" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2337" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2337" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D2337" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E2337" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2337" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2337" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2337" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2337" t="n">
+        <v>107800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2337"/>
+  <dimension ref="A1:I2338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83047,6 +83047,43 @@
         <v>107800</v>
       </c>
     </row>
+    <row r="2338">
+      <c r="A2338" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2338" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2338" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D2338" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E2338" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2338" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2338" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2338" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2338" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2338"/>
+  <dimension ref="A1:I2339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83084,6 +83084,43 @@
         </is>
       </c>
     </row>
+    <row r="2339">
+      <c r="A2339" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2339" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2339" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D2339" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E2339" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2339" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2339" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2339" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2339" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2339"/>
+  <dimension ref="A1:I2340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83121,6 +83121,43 @@
         </is>
       </c>
     </row>
+    <row r="2340">
+      <c r="A2340" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2340" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2340" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D2340" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E2340" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2340" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2340" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2340" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2340" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2340"/>
+  <dimension ref="A1:I2341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83158,6 +83158,43 @@
         </is>
       </c>
     </row>
+    <row r="2341">
+      <c r="A2341" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2341" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2341" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D2341" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E2341" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2341" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2341" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2341" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2341" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4359.xlsx
+++ b/data/4359.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2341"/>
+  <dimension ref="A1:I2342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83195,6 +83195,41 @@
         </is>
       </c>
     </row>
+    <row r="2342">
+      <c r="A2342" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2342" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2342" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D2342" t="inlineStr">
+        <is>
+          <t>TURIYA</t>
+        </is>
+      </c>
+      <c r="E2342" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2342" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2342" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2342" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2342" t="n">
+        <v>10800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
